--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlada\Documents\GitHub\kursach3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B0CA0-D1AD-4ECF-929F-E91204C4CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="24855" windowHeight="12540"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -234,8 +240,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,9 +295,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,134 +1301,142 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A2:A9" totalsRowShown="0">
-  <autoFilter ref="A2:A9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A2:A9" totalsRowShown="0">
+  <autoFilter ref="A2:A9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс objectDisplay "/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="класс objectDisplay "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица3671112" displayName="Таблица3671112" ref="I35:I38" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="I35:I38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Таблица3671112" displayName="Таблица3671112" ref="I35:I38" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="I35:I38" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс buttonWidthWall" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="класс buttonWidthWall" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Таблица367111213" displayName="Таблица367111213" ref="K35:K38" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="K35:K38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Таблица367111213" displayName="Таблица367111213" ref="K35:K38" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="K35:K38" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс buttonFurniture" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="класс buttonFurniture" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Таблица36711121314" displayName="Таблица36711121314" ref="M35:M37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="M35:M37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Таблица36711121314" displayName="Таблица36711121314" ref="M35:M37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="M35:M37" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс buttonTools" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="класс buttonTools" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица3671112131415" displayName="Таблица3671112131415" ref="O35:O37" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
-  <autoFilter ref="O35:O37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Таблица3671112131415" displayName="Таблица3671112131415" ref="O35:O37" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
+  <autoFilter ref="O35:O37" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс buttonFile" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="класс buttonFile" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A11:A20" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
-  <autoFilter ref="A11:A20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица3" displayName="Таблица3" ref="A11:A20" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+  <autoFilter ref="A11:A20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс statusBar" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="класс statusBar" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица35" displayName="Таблица35" ref="C11:C12" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="C11:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица35" displayName="Таблица35" ref="C11:C12" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="C11:C12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс objectClickable" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="класс objectClickable" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица36" displayName="Таблица36" ref="C20:C29" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
-  <autoFilter ref="C20:C29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Таблица36" displayName="Таблица36" ref="C20:C29" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
+  <autoFilter ref="C20:C29" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс figure" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="класс figure" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица367" displayName="Таблица367" ref="E20:E33" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
-  <autoFilter ref="E20:E33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Таблица367" displayName="Таблица367" ref="E20:E33" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
+  <autoFilter ref="E20:E33" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс areaDraw" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="класс areaDraw" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица368" displayName="Таблица368" ref="C35:C47" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
-  <autoFilter ref="C35:C47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Таблица368" displayName="Таблица368" ref="C35:C47" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <autoFilter ref="C35:C47" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс objectFurniture" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="класс objectFurniture" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица3689" displayName="Таблица3689" ref="E35:E47" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
-  <autoFilter ref="E35:E47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Таблица3689" displayName="Таблица3689" ref="E35:E47" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+  <autoFilter ref="E35:E47" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс objectWall" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="класс objectWall" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Таблица368910" displayName="Таблица368910" ref="G35:G44" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="G35:G44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Таблица368910" displayName="Таблица368910" ref="G35:G44" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="G35:G44" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс objectFigureOnWall" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="класс objectFigureOnWall" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица36711" displayName="Таблица36711" ref="I20:I21" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
-  <autoFilter ref="I20:I21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Таблица36711" displayName="Таблица36711" ref="I20:I21" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="I20:I21" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="класс button" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="класс button" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1472,7 +1485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1504,9 +1517,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1538,6 +1569,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1713,80 +1762,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.09765625" customWidth="1"/>
+    <col min="3" max="3" width="35.3984375" customWidth="1"/>
+    <col min="5" max="5" width="34.09765625" customWidth="1"/>
+    <col min="7" max="7" width="34.8984375" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" customWidth="1"/>
+    <col min="9" max="9" width="32.3984375" customWidth="1"/>
+    <col min="11" max="11" width="25.8984375" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" customWidth="1"/>
+    <col min="15" max="15" width="26.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickTop="1">
+    <row r="12" spans="1:3" ht="14.95" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1794,56 +1843,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+    <row r="20" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickTop="1">
+    <row r="21" spans="1:9" ht="14.95" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -1854,7 +1903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>24</v>
       </c>
@@ -1870,7 +1919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +1935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -1894,7 +1943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>27</v>
       </c>
@@ -1902,7 +1951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -1918,50 +1967,50 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="3:15" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="3:15" ht="15.75" thickTop="1">
+    <row r="36" spans="3:15" ht="14.95" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -1984,7 +2033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -2007,7 +2056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="3:15">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>46</v>
       </c>
@@ -2024,7 +2073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>47</v>
       </c>
@@ -2035,7 +2084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="3:15">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>48</v>
       </c>
@@ -2046,7 +2095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -2057,7 +2106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="3:15">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -2079,7 +2128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>52</v>
       </c>
@@ -2090,7 +2139,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="3:15">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -2098,7 +2147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>53</v>
       </c>
@@ -2106,7 +2155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="3:15">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>55</v>
       </c>
@@ -2135,24 +2184,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlada\Documents\GitHub\kursach3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B0CA0-D1AD-4ECF-929F-E91204C4CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21465" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -240,8 +234,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,130 +1307,130 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A2:A9" totalsRowShown="0">
-  <autoFilter ref="A2:A9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A2:A9" totalsRowShown="0">
+  <autoFilter ref="A2:A9"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="класс objectDisplay "/>
+    <tableColumn id="1" name="класс objectDisplay "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Таблица3671112" displayName="Таблица3671112" ref="I35:I38" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="I35:I38" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица3671112" displayName="Таблица3671112" ref="I35:I38" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="I35:I38"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="класс buttonWidthWall" dataDxfId="15"/>
+    <tableColumn id="1" name="класс buttonWidthWall" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Таблица367111213" displayName="Таблица367111213" ref="K35:K38" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="K35:K38" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Таблица367111213" displayName="Таблица367111213" ref="K35:K38" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="K35:K38"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="класс buttonFurniture" dataDxfId="10"/>
+    <tableColumn id="1" name="класс buttonFurniture" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Таблица36711121314" displayName="Таблица36711121314" ref="M35:M37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="M35:M37" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Таблица36711121314" displayName="Таблица36711121314" ref="M35:M37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="M35:M37"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="класс buttonTools" dataDxfId="5"/>
+    <tableColumn id="1" name="класс buttonTools" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Таблица3671112131415" displayName="Таблица3671112131415" ref="O35:O37" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
-  <autoFilter ref="O35:O37" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица3671112131415" displayName="Таблица3671112131415" ref="O35:O37" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1">
+  <autoFilter ref="O35:O37"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="класс buttonFile" dataDxfId="0"/>
+    <tableColumn id="1" name="класс buttonFile" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица3" displayName="Таблица3" ref="A11:A20" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
-  <autoFilter ref="A11:A20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A11:A20" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+  <autoFilter ref="A11:A20"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="класс statusBar" dataDxfId="55"/>
+    <tableColumn id="1" name="класс statusBar" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица35" displayName="Таблица35" ref="C11:C12" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="C11:C12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица35" displayName="Таблица35" ref="C11:C12" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+  <autoFilter ref="C11:C12"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="класс objectClickable" dataDxfId="50"/>
+    <tableColumn id="1" name="класс objectClickable" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Таблица36" displayName="Таблица36" ref="C20:C29" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
-  <autoFilter ref="C20:C29" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица36" displayName="Таблица36" ref="C20:C29" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
+  <autoFilter ref="C20:C29"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="класс figure" dataDxfId="45"/>
+    <tableColumn id="1" name="класс figure" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Таблица367" displayName="Таблица367" ref="E20:E33" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
-  <autoFilter ref="E20:E33" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица367" displayName="Таблица367" ref="E20:E33" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
+  <autoFilter ref="E20:E33"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="класс areaDraw" dataDxfId="40"/>
+    <tableColumn id="1" name="класс areaDraw" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Таблица368" displayName="Таблица368" ref="C35:C47" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
-  <autoFilter ref="C35:C47" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица368" displayName="Таблица368" ref="C35:C47" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <autoFilter ref="C35:C47"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="класс objectFurniture" dataDxfId="35"/>
+    <tableColumn id="1" name="класс objectFurniture" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Таблица3689" displayName="Таблица3689" ref="E35:E47" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
-  <autoFilter ref="E35:E47" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица3689" displayName="Таблица3689" ref="E35:E47" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+  <autoFilter ref="E35:E47"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="класс objectWall" dataDxfId="30"/>
+    <tableColumn id="1" name="класс objectWall" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Таблица368910" displayName="Таблица368910" ref="G35:G44" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="G35:G44" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Таблица368910" displayName="Таблица368910" ref="G35:G44" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="G35:G44"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="класс objectFigureOnWall" dataDxfId="25"/>
+    <tableColumn id="1" name="класс objectFigureOnWall" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Таблица36711" displayName="Таблица36711" ref="I20:I21" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
-  <autoFilter ref="I20:I21" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица36711" displayName="Таблица36711" ref="I20:I21" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="I20:I21"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="класс button" dataDxfId="20"/>
+    <tableColumn id="1" name="класс button" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1485,7 +1479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1517,27 +1511,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1569,24 +1545,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1762,72 +1720,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G20" sqref="G20:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.09765625" customWidth="1"/>
-    <col min="3" max="3" width="35.3984375" customWidth="1"/>
-    <col min="5" max="5" width="34.09765625" customWidth="1"/>
-    <col min="7" max="7" width="34.8984375" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" customWidth="1"/>
-    <col min="9" max="9" width="32.3984375" customWidth="1"/>
-    <col min="11" max="11" width="25.8984375" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="15" max="15" width="26.8984375" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.95" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" thickTop="1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1843,42 +1801,42 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.95" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" thickTop="1">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -1903,7 +1861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -1911,7 +1869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="C23" t="s">
         <v>24</v>
       </c>
@@ -1919,7 +1877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -1943,7 +1901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="C27" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +1909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="C28" t="s">
         <v>28</v>
       </c>
@@ -1959,7 +1917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -1967,27 +1925,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="E30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="E31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="E32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:15">
       <c r="E33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="3:15" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:15" ht="15.75" thickBot="1">
       <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
@@ -2010,7 +1968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="3:15" ht="14.95" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:15" ht="15.75" thickTop="1">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -2033,7 +1991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:15">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -2056,7 +2014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:15">
       <c r="C38" t="s">
         <v>46</v>
       </c>
@@ -2073,7 +2031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15">
       <c r="C39" t="s">
         <v>47</v>
       </c>
@@ -2084,7 +2042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15">
       <c r="C40" t="s">
         <v>48</v>
       </c>
@@ -2095,7 +2053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:15">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -2106,7 +2064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:15">
       <c r="C42" t="s">
         <v>49</v>
       </c>
@@ -2117,7 +2075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -2128,7 +2086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:15">
       <c r="C44" t="s">
         <v>52</v>
       </c>
@@ -2139,7 +2097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:15">
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -2147,7 +2105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:15">
       <c r="C46" t="s">
         <v>53</v>
       </c>
@@ -2155,7 +2113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:15">
       <c r="C47" t="s">
         <v>55</v>
       </c>
@@ -2184,24 +2142,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
